--- a/Scallop_survey/Data/Boat_ramp_locations.xlsx
+++ b/Scallop_survey/Data/Boat_ramp_locations.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Bay Scallops\Trawl Studies\Sites\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Erica.Levine\Documents\Git working\Mapping\Scallop_survey\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F4DF13D1-8EB3-4CF1-A570-73DCED1C229F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{857ECE09-3937-4F8C-A9A4-D901366860DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9624" yWindow="360" windowWidth="17280" windowHeight="8964" xr2:uid="{18997F2E-0311-4172-BB2C-2CDB62D21DB5}"/>
+    <workbookView xWindow="1068" yWindow="-108" windowWidth="22080" windowHeight="13176" xr2:uid="{18997F2E-0311-4172-BB2C-2CDB62D21DB5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Ramp</t>
   </si>
@@ -56,6 +56,24 @@
   </si>
   <si>
     <t>FIT Enter</t>
+  </si>
+  <si>
+    <t>Anclote River</t>
+  </si>
+  <si>
+    <t>AR Enter</t>
+  </si>
+  <si>
+    <t>Nick's Park</t>
+  </si>
+  <si>
+    <t>NP Enter</t>
+  </si>
+  <si>
+    <t>RJ Stirckland</t>
+  </si>
+  <si>
+    <t>RJS Enter</t>
   </si>
 </sst>
 </file>
@@ -111,9 +129,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -151,7 +169,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -257,7 +275,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -399,7 +417,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -407,13 +425,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75435D9F-9FAF-4D8A-9D44-268099C3AA8E}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -470,6 +493,72 @@
         <v>28.9251</v>
       </c>
     </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6">
+        <v>-82.788129999999995</v>
+      </c>
+      <c r="C6">
+        <v>28.176169999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7">
+        <v>-82.818560000000005</v>
+      </c>
+      <c r="C7">
+        <v>28.17567</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8">
+        <v>-82.726020000000005</v>
+      </c>
+      <c r="C8">
+        <v>28.272349999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9">
+        <v>-82.767169999999993</v>
+      </c>
+      <c r="C9">
+        <v>28.285129999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10">
+        <v>-82.708320000000001</v>
+      </c>
+      <c r="C10">
+        <v>28.361429999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11">
+        <v>-82.718879999999999</v>
+      </c>
+      <c r="C11">
+        <v>28.363150000000001</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
